--- a/Compiler/doc/ParseTableRules.xlsx
+++ b/Compiler/doc/ParseTableRules.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justice\Desktop\Klein-Compiler\Compiler\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hilli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parse Table" sheetId="1" r:id="rId1"/>
     <sheet name="Rule List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rule List'!$A$1:$D$46</definedName>
-    <definedName name="Revised_Grammar" localSheetId="1">'Rule List'!$B$2:$B$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rule List'!$A$1:$D$45</definedName>
+    <definedName name="Revised_Grammar" localSheetId="1">'Rule List'!$B$2:$B$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,8 +29,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Revised Grammar" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Revised Grammar" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="C:\Users\hilli\Documents\GitHub\Klein-Compiler\Compiler\doc\Revised Grammar.txt" delimited="0">
       <textFields>
         <textField/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="217">
   <si>
     <t>print</t>
   </si>
@@ -601,12 +601,6 @@
     <t>first(&lt;DEFINITIONS&gt;)</t>
   </si>
   <si>
-    <t>Rule 1a:</t>
-  </si>
-  <si>
-    <t>follow(&lt;PROGRAM&gt;)</t>
-  </si>
-  <si>
     <t>&lt;PROGRAM&gt; ::= ε</t>
   </si>
   <si>
@@ -677,13 +671,48 @@
   </si>
   <si>
     <t xml:space="preserve">first( = ) </t>
+  </si>
+  <si>
+    <t>&lt;EXPR-TAIL&gt; ::= = &lt;SIMPLE-EXPR&gt; | &lt;EXPR-TAIL&gt; ::= ε</t>
+  </si>
+  <si>
+    <t>&lt;EXPR-TAIL&gt; ::= &lt; &lt;SIMPLE-EXPR&gt; | &lt;EXPR-TAIL&gt; ::= ε</t>
+  </si>
+  <si>
+    <t>&lt;SIMPLE-EXPR-TAIL&gt; ::= - &lt;TERM&gt; | &lt;SIMPLE-EXPR-TAIL&gt; ::= ε</t>
+  </si>
+  <si>
+    <t>&lt;SIMPLE-EXPR-TAIL&gt; ::= + &lt;TERM&gt; | &lt;SIMPLE-EXPR-TAIL&gt; ::= ε</t>
+  </si>
+  <si>
+    <t>&lt;TERM-TAIL&gt; ::= and &lt;FACTOR&gt; | &lt;TERM-TAIL&gt; ::= ε</t>
+  </si>
+  <si>
+    <t>&lt;TERM-TAIL&gt; ::= * &lt;FACTOR&gt; | &lt;TERM-TAIL&gt; ::= ε</t>
+  </si>
+  <si>
+    <t>&lt;TERM-TAIL&gt; ::= / &lt;FACTOR&gt; | &lt;TERM-TAIL&gt; ::= ε</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,16 +762,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +792,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Revised Grammar" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Revised Grammar" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1060,862 +1091,1055 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="26.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="42.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="53.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="46.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" t="s">
-        <v>104</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" t="s">
-        <v>98</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1933,943 +2157,932 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="73.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D9" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E13" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J13" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E16" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J16" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G19" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q19" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J20" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N24" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q24" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J25" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P29" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q29" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E33" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F37" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G37" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L37" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M37" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P37" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q37" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J39" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J40" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D41" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D44" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D46" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D45"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>